--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\lifeRestart\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\games\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58033A91-7844-4CD6-A20B-4A214B64B1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0909EEB-A563-40CF-B391-5CF107512682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="1980" windowWidth="23350" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2860" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="500">
   <si>
     <t>group</t>
   </si>
@@ -2047,6 +2047,54 @@
   </si>
   <si>
     <t>Buruol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃不饱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚尼玛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行者汤恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒惰的肥猿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库库林白夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小勘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSSamuel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>『H』</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法少女立花响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凞咥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#7FFFFD4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2407,10 +2455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D448"/>
+  <dimension ref="A1:D459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="D448" sqref="D448"/>
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="D451" sqref="D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6144,6 +6192,97 @@
         <v>487</v>
       </c>
     </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>2</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <v>2</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <v>2</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>2</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <v>2</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <v>2</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <v>2</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <v>2</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
+        <v>2</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
+        <v>2</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
+        <v>2</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\games\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0909EEB-A563-40CF-B391-5CF107512682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDF4EBF-0E76-4C84-95FF-381FE2F5E2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2860" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1150" yWindow="5510" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="502">
   <si>
     <t>group</t>
   </si>
@@ -2095,6 +2095,14 @@
   </si>
   <si>
     <t>#7FFFFD4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东京八百万萝莉总教头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门后有只猫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2455,10 +2463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D459"/>
+  <dimension ref="A1:D461"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="D451" sqref="D451"/>
+      <selection activeCell="C459" sqref="C459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6283,6 +6291,22 @@
         <v>499</v>
       </c>
     </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
+        <v>2</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <v>2</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\games\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDF4EBF-0E76-4C84-95FF-381FE2F5E2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CB65C7-AB9B-4089-B0EE-92EE18EDD871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1150" yWindow="5510" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="504">
   <si>
     <t>group</t>
   </si>
@@ -2103,6 +2103,14 @@
   </si>
   <si>
     <t>门后有只猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeoLoki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆因堂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2463,10 +2471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D461"/>
+  <dimension ref="A1:D463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="C459" sqref="C459"/>
+    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="F463" sqref="F463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6307,6 +6315,22 @@
         <v>501</v>
       </c>
     </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
+        <v>2</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
+        <v>2</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
